--- a/base.xlsx
+++ b/base.xlsx
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Car Sponge</t>
   </si>
   <si>
-    <t>drowssap</t>
-  </si>
-  <si>
     <t>Pomichnica</t>
   </si>
   <si>
@@ -136,6 +133,12 @@
   </si>
   <si>
     <t>YUKO</t>
+  </si>
+  <si>
+    <t>cGFzc3dvcmQ=</t>
+  </si>
+  <si>
+    <t>d29yZA==</t>
   </si>
 </sst>
 </file>
@@ -454,18 +457,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <v>22.8</v>
@@ -480,15 +485,18 @@
         <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>730</v>
@@ -503,12 +511,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>700</v>
@@ -523,12 +531,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>248</v>
@@ -543,12 +551,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5">
         <v>30.7</v>
@@ -563,12 +571,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
       <c r="C6">
         <v>99</v>
@@ -583,12 +591,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
       <c r="C7">
         <v>1059.9000000000001</v>
@@ -603,12 +611,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8">
         <v>430</v>
@@ -623,12 +631,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
       <c r="C9">
         <v>1520</v>
@@ -643,12 +651,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
       <c r="C10">
         <v>322</v>
@@ -663,12 +671,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
       <c r="C11">
         <v>540</v>
@@ -683,12 +691,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
       <c r="C12">
         <v>44.9</v>
@@ -703,12 +711,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
       <c r="C13">
         <v>50.12</v>
@@ -723,12 +731,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>1021</v>
@@ -743,12 +751,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
       </c>
       <c r="C15">
         <v>1021</v>
@@ -763,12 +771,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>159.9</v>
@@ -785,10 +793,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
       <c r="C17">
         <v>825.5</v>
@@ -805,10 +813,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>620</v>
@@ -825,10 +833,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
       </c>
       <c r="C19">
         <v>360</v>
@@ -845,10 +853,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
       </c>
       <c r="C20">
         <v>225</v>
